--- a/Original_Excel_Files/PK-PM.xlsx
+++ b/Original_Excel_Files/PK-PM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926620EA-9EB8-4B29-915B-E23B6506E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F70D91-01A0-43B7-A98C-C389E58533D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>PK1722 .A2 J3613 1971</t>
   </si>
   <si>
-    <t>Tagore</t>
-  </si>
-  <si>
-    <t>Rabindranath</t>
-  </si>
-  <si>
     <t>1971 P</t>
   </si>
   <si>
@@ -37,12 +31,6 @@
     <t>PL2303 .C4264</t>
   </si>
   <si>
-    <t>Hsu</t>
-  </si>
-  <si>
-    <t>Kai-yu</t>
-  </si>
-  <si>
     <t>1975 P</t>
   </si>
   <si>
@@ -52,12 +40,6 @@
     <t>PL8491.9 .E63 J6 1992</t>
   </si>
   <si>
-    <t>Sisoko</t>
-  </si>
-  <si>
-    <t>Fa-Digi</t>
-  </si>
-  <si>
     <t>1992 P</t>
   </si>
   <si>
@@ -67,76 +49,61 @@
     <t>PK3633 .A2 R3</t>
   </si>
   <si>
-    <t>Rajagopalachari, C.</t>
-  </si>
-  <si>
     <t>Mahabharata</t>
   </si>
   <si>
     <t>PK3642 .B5 M25</t>
   </si>
   <si>
-    <t>maharishi Mahesh Yogi</t>
-  </si>
-  <si>
     <t>Bhagavad-Gita</t>
   </si>
   <si>
     <t>PK6513 .A1</t>
   </si>
   <si>
-    <t>Fitzgerald, Edward</t>
-  </si>
-  <si>
     <t>The Rubaiyat of Omar Khayyam</t>
   </si>
   <si>
     <t>PL2478 .D8 1967</t>
   </si>
   <si>
-    <t>Wilhelm, Richard and Baynes, Cary F. Tr.</t>
-  </si>
-  <si>
     <t>The I Ching</t>
   </si>
   <si>
     <t>PL2658 .E5 L5</t>
   </si>
   <si>
-    <t>trans. Jung-en, Liu</t>
-  </si>
-  <si>
     <t>Six Yuan Plays</t>
   </si>
   <si>
     <t>PL8010 .G4</t>
   </si>
   <si>
-    <t>Gerard, Albert S.</t>
-  </si>
-  <si>
     <t>Four African Literature</t>
   </si>
   <si>
     <t>PK2659 .A44 P56 2009</t>
   </si>
   <si>
-    <t>Pritam, Amrita</t>
-  </si>
-  <si>
     <t>Pinjar</t>
   </si>
   <si>
     <t>PL2659.E1 C45</t>
   </si>
   <si>
-    <t>Mao Tsetung</t>
-  </si>
-  <si>
     <t>1977 P</t>
   </si>
   <si>
     <t>Chinese Literature (Mao Tsetung: Letter Concerning the Study of the Dream of the Red Chamber)</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -215,35 +182,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,254 +544,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:I31"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1970</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1969</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1942</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2009</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
+      <c r="B9" s="11">
+        <v>1967</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="6">
-        <v>1970</v>
-      </c>
-      <c r="G12" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B10" s="12">
+        <v>1972</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="14">
-        <v>1969</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="B12" s="12">
+        <v>1971</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1942</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1967</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1972</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1971</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I33">
-    <sortCondition ref="A1:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
